--- a/P2/Resources/Matriz_tareas.xlsx
+++ b/P2/Resources/Matriz_tareas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Acción</t>
   </si>
@@ -52,12 +52,12 @@
     <t>Añadir producto al carrito</t>
   </si>
   <si>
+    <t>Añadir datos de pago</t>
+  </si>
+  <si>
     <t>Pagar a través de la plataforma</t>
   </si>
   <si>
-    <t>Añadir datos de pago</t>
-  </si>
-  <si>
     <t>Visualizar y gestionar pedidos recibidos</t>
   </si>
   <si>
@@ -88,15 +88,18 @@
     <t>Publicar productos a la venta</t>
   </si>
   <si>
+    <t>Iniciar sesion</t>
+  </si>
+  <si>
+    <t>Añadir ubicacion (Agricultor)</t>
+  </si>
+  <si>
+    <t>Crear perfil de agricultor</t>
+  </si>
+  <si>
     <t>Registrarse en la plataforma</t>
   </si>
   <si>
-    <t>Añadir ubicacion (Agricultor)</t>
-  </si>
-  <si>
-    <t>Crear perfil de agricultor</t>
-  </si>
-  <si>
     <t>Cancelar pedido</t>
   </si>
   <si>
@@ -107,6 +110,12 @@
   </si>
   <si>
     <t>Dar de baja cuenta</t>
+  </si>
+  <si>
+    <t>Modificar datos envio</t>
+  </si>
+  <si>
+    <t>Cancelar suscripcion</t>
   </si>
 </sst>
 </file>
@@ -273,10 +282,10 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -284,13 +293,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -298,13 +307,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -430,7 +439,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F27" displayName="Tabla_1" name="Tabla_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F30" displayName="Tabla_1" name="Tabla_1" id="1">
   <tableColumns count="6">
     <tableColumn name="Acción" id="1"/>
     <tableColumn name="Agricultor" id="2"/>
@@ -641,6 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -695,7 +705,7 @@
         <v>0.9</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F27" si="1">AVERAGE(B2:E2)</f>
+        <f t="shared" ref="F2:F30" si="1">AVERAGE(B2:E2)</f>
         <v>0.6375</v>
       </c>
     </row>
@@ -826,43 +836,43 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="11">
         <v>1.0</v>
       </c>
-      <c r="D9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D10" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="11">
         <v>1.0</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -1078,24 +1088,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="1"/>
-        <v>0.225</v>
+      <c r="B21" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="22">
@@ -1141,95 +1151,161 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="14">
         <v>0.1</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="14">
         <v>0.3</v>
       </c>
-      <c r="D24" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D25" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="14">
         <v>0.27</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="15">
         <f t="shared" si="1"/>
         <v>0.1675</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
+    <row r="26">
+      <c r="A26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="11">
         <v>0.3</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C26" s="11">
         <v>0.2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="11">
         <v>0.05</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="11">
         <v>0.1</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="12">
         <f t="shared" si="1"/>
         <v>0.1625</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="27">
+      <c r="A27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="14">
         <v>0.2</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="14">
         <v>0.003</v>
       </c>
-      <c r="D26" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D27" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="14">
         <v>0.3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="15">
         <f t="shared" si="1"/>
         <v>0.12575</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="17">
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.15</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C28" s="5">
         <v>0.1</v>
       </c>
-      <c r="D27" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="D28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="5">
         <v>0.05</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F28" s="6">
         <f t="shared" si="1"/>
         <v>0.075</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="1"/>
+        <v>0.0125</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:F27">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:F30">
       <formula1>AND(ISNUMBER(B2),(NOT(OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown" paperHeight="7.48031496062992in" paperWidth="8.26771653543307in"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
